--- a/Data/Test_Question_File.3_15.xlsx
+++ b/Data/Test_Question_File.3_15.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://huroncg-my.sharepoint.com/personal/johsnyder_huronconsultinggroup_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://huroncg-my.sharepoint.com/personal/khirst_huronconsultinggroup_com/Documents/Desktop/RPA/VA Project/ML_RPA_Use_Cases/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="8_{A196FC46-37C7-497A-8168-3DF98752043B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3EA1CA1D-A707-4164-B211-3B31D850538E}"/>
+  <xr:revisionPtr revIDLastSave="247" documentId="8_{A196FC46-37C7-497A-8168-3DF98752043B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F22F89CC-F6B1-4F35-822A-D32B41D5562C}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3A809188-EDBE-4730-9950-7A0D0331F8B9}"/>
+    <workbookView xWindow="-20970" yWindow="9345" windowWidth="17130" windowHeight="14625" xr2:uid="{3A809188-EDBE-4730-9950-7A0D0331F8B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Cancer" sheetId="2" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>Code</t>
   </si>
@@ -68,27 +68,18 @@
     <t>Do You Get Income From Social Security?</t>
   </si>
   <si>
-    <t>Yes;No</t>
-  </si>
-  <si>
     <t>KIQ005</t>
   </si>
   <si>
     <t>How Often Do You Have Urinary Leakage per week?</t>
   </si>
   <si>
-    <t>Once;Twice;Thrice</t>
-  </si>
-  <si>
     <t>AUQ054</t>
   </si>
   <si>
     <t>General Condition of Hearing?</t>
   </si>
   <si>
-    <t>Great;Good;Average;Poor</t>
-  </si>
-  <si>
     <t>MCQ560</t>
   </si>
   <si>
@@ -113,9 +104,6 @@
     <t>Main Reason for Visiting Dentist?</t>
   </si>
   <si>
-    <t>Checkup;Surgery;Cavity</t>
-  </si>
-  <si>
     <t>MCQ092</t>
   </si>
   <si>
@@ -138,6 +126,21 @@
   </si>
   <si>
     <t xml:space="preserve">Any Chemical Products Used to Kill Weeds? </t>
+  </si>
+  <si>
+    <t>Yes;No;Refused;Don't Know;Missing</t>
+  </si>
+  <si>
+    <t>Never;Less than once a month;A few times a month;A few times a week; Ever day and/or night; Refused;Don't Know;Missing</t>
+  </si>
+  <si>
+    <t>Excellent;Good;A little trouble;Moderate hearing trouble;A lot of trouble;Deaf;Refused;Don't Know;Missing</t>
+  </si>
+  <si>
+    <t>Went in on own for check-up, examination, or cleaning;Was called in by dentist for check-up, examination, or cleaning;Something was wrong, bothering, or hurting; Went for treatment of a condition that dentist previously discovered;Other;Refused;Don't Know;Missing</t>
+  </si>
+  <si>
+    <t>Not at all;Several Days;More than half the days;Nearly every day;Refused;Don't Know;Missing</t>
   </si>
 </sst>
 </file>
@@ -217,10 +220,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -536,18 +535,18 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="65" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="234.31640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -561,7 +560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -569,117 +568,117 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A12" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>25</v>
       </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="C12" t="s">
         <v>26</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -697,7 +696,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Data/Test_Question_File.3_15.xlsx
+++ b/Data/Test_Question_File.3_15.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://huroncg-my.sharepoint.com/personal/khirst_huronconsultinggroup_com/Documents/Desktop/RPA/VA Project/ML_RPA_Use_Cases/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="247" documentId="8_{A196FC46-37C7-497A-8168-3DF98752043B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F22F89CC-F6B1-4F35-822A-D32B41D5562C}"/>
+  <xr:revisionPtr revIDLastSave="268" documentId="8_{A196FC46-37C7-497A-8168-3DF98752043B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD8011F4-796F-48D5-8745-D97B8DCB6C94}"/>
   <bookViews>
-    <workbookView xWindow="-20970" yWindow="9345" windowWidth="17130" windowHeight="14625" xr2:uid="{3A809188-EDBE-4730-9950-7A0D0331F8B9}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{3A809188-EDBE-4730-9950-7A0D0331F8B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Cancer" sheetId="2" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
   <si>
     <t>Code</t>
   </si>
@@ -62,36 +62,78 @@
     <t>Answer</t>
   </si>
   <si>
+    <t>Coefficient</t>
+  </si>
+  <si>
     <t>INQ030</t>
   </si>
   <si>
     <t>Do You Get Income From Social Security?</t>
   </si>
   <si>
+    <t>Yes;No;Refused;Don't Know;Missing</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>KIQ005</t>
   </si>
   <si>
     <t>How Often Do You Have Urinary Leakage per week?</t>
   </si>
   <si>
+    <t>Never;Less than once a month;A few times a month;A few times a week; Ever day and/or night; Refused;Don't Know;Missing</t>
+  </si>
+  <si>
+    <t>Less than once a month</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>AUQ054</t>
   </si>
   <si>
     <t>General Condition of Hearing?</t>
   </si>
   <si>
+    <t>Excellent;Good;A little trouble;Moderate hearing trouble;A lot of trouble;Deaf;Refused;Don't Know;Missing</t>
+  </si>
+  <si>
+    <t>A little trouble</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>MCQ560</t>
   </si>
   <si>
     <t>Have You Ever Had GallBladder Surgery?</t>
   </si>
   <si>
+    <t>Don't Know</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>MCQ371D</t>
   </si>
   <si>
     <t>Are you watching your weight?</t>
   </si>
   <si>
+    <t>Missing</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>HUQ071</t>
   </si>
   <si>
@@ -104,12 +146,21 @@
     <t>Main Reason for Visiting Dentist?</t>
   </si>
   <si>
+    <t>Went in on own for check-up, examination, or cleaning;Was called in by dentist for check-up, examination, or cleaning;Something was wrong, bothering, or hurting; Went for treatment of a condition that dentist previously discovered;Other;Refused;Don't Know;Missing</t>
+  </si>
+  <si>
+    <t>Something was wrong, bothering, or hurting</t>
+  </si>
+  <si>
     <t>MCQ092</t>
   </si>
   <si>
     <t>Received Blood Transfusion?</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>SMQ020</t>
   </si>
   <si>
@@ -122,25 +173,19 @@
     <t>Over the Last Two Weeks have You Felt Tired or Had Little Energy?</t>
   </si>
   <si>
+    <t>Not at all;Several Days;More than half the days;Nearly every day;Refused;Don't Know;Missing</t>
+  </si>
+  <si>
+    <t>Several Days</t>
+  </si>
+  <si>
     <t>PUQ110</t>
   </si>
   <si>
     <t xml:space="preserve">Any Chemical Products Used to Kill Weeds? </t>
   </si>
   <si>
-    <t>Yes;No;Refused;Don't Know;Missing</t>
-  </si>
-  <si>
-    <t>Never;Less than once a month;A few times a month;A few times a week; Ever day and/or night; Refused;Don't Know;Missing</t>
-  </si>
-  <si>
-    <t>Excellent;Good;A little trouble;Moderate hearing trouble;A lot of trouble;Deaf;Refused;Don't Know;Missing</t>
-  </si>
-  <si>
-    <t>Went in on own for check-up, examination, or cleaning;Was called in by dentist for check-up, examination, or cleaning;Something was wrong, bothering, or hurting; Went for treatment of a condition that dentist previously discovered;Other;Refused;Don't Know;Missing</t>
-  </si>
-  <si>
-    <t>Not at all;Several Days;More than half the days;Nearly every day;Refused;Don't Know;Missing</t>
+    <t>Refused</t>
   </si>
 </sst>
 </file>
@@ -188,7 +233,12 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="1"/>
@@ -223,13 +273,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Test_ML_RPA_File" displayName="Test_ML_RPA_File" ref="A1:D12" totalsRowShown="0">
-  <autoFilter ref="A1:D12" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Code" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Question" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Answer Options" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Answer" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Test_ML_RPA_File" displayName="Test_ML_RPA_File" ref="A1:E12" totalsRowShown="0">
+  <autoFilter ref="A1:E12" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Code" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Question" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Answer Options" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Answer" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Coefficient" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -532,21 +583,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56D7271-7352-4CE3-9491-49EDC88F3678}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="234.31640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.6796875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="221.04296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -559,126 +611,195 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A4" t="s">
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E10" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A7" t="s">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
         <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Test_Question_File.3_15.xlsx
+++ b/Data/Test_Question_File.3_15.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://huroncg-my.sharepoint.com/personal/khirst_huronconsultinggroup_com/Documents/Desktop/RPA/VA Project/ML_RPA_Use_Cases/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="269" documentId="8_{A196FC46-37C7-497A-8168-3DF98752043B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85A3F446-699E-4F86-B374-11A4DA90938E}"/>
+  <xr:revisionPtr revIDLastSave="278" documentId="8_{A196FC46-37C7-497A-8168-3DF98752043B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82A909CC-565D-4186-A58E-3C88A63329DA}"/>
   <x:bookViews>
-    <x:workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" firstSheet="0" activeTab="0" xr2:uid="{3A809188-EDBE-4730-9950-7A0D0331F8B9}"/>
+    <x:workbookView xWindow="-28920" yWindow="7710" windowWidth="29040" windowHeight="17640" firstSheet="0" activeTab="0" xr2:uid="{3A809188-EDBE-4730-9950-7A0D0331F8B9}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Cancer" sheetId="2" r:id="rId1"/>
     <x:sheet name="Diabetes" sheetId="1" r:id="rId2"/>
   </x:sheets>
   <x:definedNames>
-    <x:definedName name="ExternalData_1" localSheetId="0" hidden="1">Cancer!$A$1:$A$12</x:definedName>
+    <x:definedName name="ExternalData_1" localSheetId="0" hidden="1">Cancer!$A$1:$A$13</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="191029"/>
   <x:extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <x:si>
     <x:t>Code</x:t>
   </x:si>
@@ -186,6 +186,18 @@
   </x:si>
   <x:si>
     <x:t>Refused</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HUQ051</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Number of Times Received Healthcare Over Past Year?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>None;1;2 to 3;4 to 5;6 to 7;8 to 9;10 to 12;13 to 15;16 or more;Refused;Don't Know;Missing</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4 to 5</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -262,13 +274,9 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Test_ML_RPA_File" displayName="Test_ML_RPA_File" ref="A1:E12" totalsRowShown="0">
-  <x:autoFilter ref="A1:E12"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Test_ML_RPA_File" displayName="Test_ML_RPA_File" ref="A1:E13" totalsRowShown="0">
+  <x:autoFilter ref="A1:E13"/>
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Code" dataDxfId="0"/>
     <x:tableColumn id="2" name="Question" dataDxfId="0"/>
@@ -569,7 +577,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -580,17 +588,17 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E12"/>
+  <x:dimension ref="A1:E13"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <x:selection activeCell="D16" sqref="D16"/>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="D17" sqref="D17"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <x:cols>
     <x:col min="1" max="1" width="9.269531" style="0" bestFit="1" customWidth="1"/>
-    <x:col min="2" max="2" width="56.679688" style="0" hidden="1" customWidth="1"/>
-    <x:col min="3" max="3" width="221.042969" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="2" width="16.453125" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="195.542969" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="9.632812" style="0" bestFit="1" customWidth="1"/>
     <x:col min="5" max="5" width="11.953125" style="0" bestFit="1" customWidth="1"/>
   </x:cols>
@@ -796,6 +804,23 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:5" x14ac:dyDescent="0.75">
+      <x:c r="A13" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
     </x:row>
